--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,24 +487,149 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Backward obstacle avoidance unavailable</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9-20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>After powering off the aircraft,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9-13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,149 +487,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Backward obstacle avoidance unavailable</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9-20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>After powering off the aircraft,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
